--- a/Gráfico_dinámico.xlsx
+++ b/Gráfico_dinámico.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBS/Documents/GitHub/LME-Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5951588A-3BD3-ED4C-A09F-FF16AD17491D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61390AE1-7FEB-4E49-B5A8-EFC09BF24908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51220" yWindow="-5140" windowWidth="25580" windowHeight="19760" xr2:uid="{475ADC4C-66C2-134C-816D-A8CC565EBC03}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="19760" xr2:uid="{475ADC4C-66C2-134C-816D-A8CC565EBC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="lme" localSheetId="0">Hoja1!$A$1:$D$53</definedName>
+    <definedName name="lme" localSheetId="0">Hoja1!$A$1:$D$66</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="16" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C1D52055-64C5-1840-B58C-9F4717011838}" name="lme" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/MBS/Documents/GitHub/LME-Scraper/lme.csv" comma="1">
+    <textPr sourceFile="/Users/MBS/Documents/GitHub/LME-Scraper/lme.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,9 @@
   <si>
     <t>Etiquetas de columna</t>
   </si>
+  <si>
+    <t>25 October 2019</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -170,6 +173,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +205,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Gráfico dinámico.xlsx]Hoja1!TablaDinámica1</c:name>
+    <c:name>[Gráfico_dinámico.xlsx]Hoja1!TablaDinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -240,6 +244,21 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -253,7 +272,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="3"/>
+        <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -268,7 +287,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -283,7 +302,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -298,7 +317,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="6"/>
+        <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -313,7 +332,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="7"/>
+        <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -328,7 +347,189 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="8"/>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -343,7 +544,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="9"/>
+        <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -358,7 +559,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="10"/>
+        <c:idx val="25"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -373,7 +574,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="11"/>
+        <c:idx val="26"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -388,7 +589,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="12"/>
+        <c:idx val="27"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -403,7 +604,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="13"/>
+        <c:idx val="28"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -418,7 +619,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="14"/>
+        <c:idx val="29"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -433,7 +634,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="15"/>
+        <c:idx val="30"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -448,7 +649,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="16"/>
+        <c:idx val="31"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -463,7 +664,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="17"/>
+        <c:idx val="32"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -478,7 +679,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="18"/>
+        <c:idx val="33"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -493,7 +694,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="19"/>
+        <c:idx val="34"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -508,7 +709,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="20"/>
+        <c:idx val="35"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -523,7 +724,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="21"/>
+        <c:idx val="36"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -538,7 +739,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="22"/>
+        <c:idx val="37"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -553,7 +754,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="23"/>
+        <c:idx val="38"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -568,7 +769,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="24"/>
+        <c:idx val="39"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -583,7 +784,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="25"/>
+        <c:idx val="40"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -598,7 +799,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="26"/>
+        <c:idx val="41"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -613,7 +814,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="27"/>
+        <c:idx val="42"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -628,7 +829,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="28"/>
+        <c:idx val="43"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -643,7 +844,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="29"/>
+        <c:idx val="44"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -658,7 +859,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="30"/>
+        <c:idx val="45"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -673,7 +874,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="31"/>
+        <c:idx val="46"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -688,7 +889,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="32"/>
+        <c:idx val="47"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -703,7 +904,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="33"/>
+        <c:idx val="48"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -718,7 +919,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="34"/>
+        <c:idx val="49"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -733,7 +934,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="35"/>
+        <c:idx val="50"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -748,7 +949,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="36"/>
+        <c:idx val="51"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -763,7 +964,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="37"/>
+        <c:idx val="52"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -778,7 +979,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="38"/>
+        <c:idx val="53"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -793,7 +994,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="39"/>
+        <c:idx val="54"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -808,7 +1009,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="40"/>
+        <c:idx val="55"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -823,7 +1024,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="41"/>
+        <c:idx val="56"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -838,7 +1039,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="42"/>
+        <c:idx val="57"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -853,7 +1054,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="43"/>
+        <c:idx val="58"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -868,7 +1069,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="44"/>
+        <c:idx val="59"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -883,7 +1084,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="45"/>
+        <c:idx val="60"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -898,7 +1099,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="46"/>
+        <c:idx val="61"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -913,7 +1114,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="47"/>
+        <c:idx val="62"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -928,7 +1129,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="48"/>
+        <c:idx val="63"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -943,7 +1144,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="49"/>
+        <c:idx val="64"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -958,7 +1159,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="50"/>
+        <c:idx val="65"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -973,7 +1174,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="51"/>
+        <c:idx val="66"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -988,7 +1189,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="52"/>
+        <c:idx val="67"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1003,7 +1204,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="53"/>
+        <c:idx val="68"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1018,7 +1219,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="54"/>
+        <c:idx val="69"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1033,7 +1234,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="55"/>
+        <c:idx val="70"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1048,7 +1249,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="56"/>
+        <c:idx val="71"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1062,237 +1263,11 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="57"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="58"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="59"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="60"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="61"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="62"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="63"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="64"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="65"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="66"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="67"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="68"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="69"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="70"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="71"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1303,119 +1278,72 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
+                  <c:v>LME Aluminium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$5:$F$19</c:f>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>LME Aluminium</c:v>
+                  <c:v>21 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LME Aluminium Alloy</c:v>
+                  <c:v>22 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LME Cobalt</c:v>
+                  <c:v>23 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LME Copper</c:v>
+                  <c:v>24 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LME Gold</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LME Lead</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LME NASAAC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LME Nickel</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LME Silver</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LME Steel Rebar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LME Steel Scrap</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LME Tin</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LME Zinc</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>25 October 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$5:$G$19</c:f>
+              <c:f>Hoja1!$G$5:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1735.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1310</c:v>
+                  <c:v>1707.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35500</c:v>
+                  <c:v>1712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5820</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1484.5</c:v>
+                  <c:v>1715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.574999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16825</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2500</c:v>
+                  <c:v>1710.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-59C0-F24B-ABBE-0DFAE3283EF4}"/>
@@ -1431,122 +1359,75 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22 October 2019</c:v>
+                  <c:v>LME Aluminium Alloy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$5:$F$19</c:f>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>LME Aluminium</c:v>
+                  <c:v>21 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LME Aluminium Alloy</c:v>
+                  <c:v>22 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LME Cobalt</c:v>
+                  <c:v>23 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LME Copper</c:v>
+                  <c:v>24 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LME Gold</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LME Lead</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LME NASAAC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LME Nickel</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LME Silver</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LME Steel Rebar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LME Steel Scrap</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LME Tin</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LME Zinc</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>25 October 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$5:$H$19</c:f>
+              <c:f>Hoja1!$H$5:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1707.5</c:v>
+                  <c:v>1310</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35500</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5794</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1484.5</c:v>
+                  <c:v>1365</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2235</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1055</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.465</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>415.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>253.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16730</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2503</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000CB-59C0-F24B-ABBE-0DFAE3283EF4}"/>
+              <c16:uniqueId val="{00000013-631B-174A-84A8-39EAA790D833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1559,122 +1440,75 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23 October 2019</c:v>
+                  <c:v>LME Cobalt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$5:$F$19</c:f>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>LME Aluminium</c:v>
+                  <c:v>21 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LME Aluminium Alloy</c:v>
+                  <c:v>22 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LME Cobalt</c:v>
+                  <c:v>23 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LME Copper</c:v>
+                  <c:v>24 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LME Gold</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LME Lead</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LME NASAAC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LME Nickel</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LME Silver</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LME Steel Rebar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LME Steel Scrap</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LME Tin</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LME Zinc</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>25 October 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$5:$I$19</c:f>
+              <c:f>Hoja1!$I$5:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1712</c:v>
+                  <c:v>35500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1325</c:v>
+                  <c:v>35500</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5773</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1493.2</c:v>
+                  <c:v>35500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2236</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16395</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16705</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2510</c:v>
+                  <c:v>35500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000CC-59C0-F24B-ABBE-0DFAE3283EF4}"/>
+              <c16:uniqueId val="{00000014-631B-174A-84A8-39EAA790D833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1687,122 +1521,75 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24 October 2019</c:v>
+                  <c:v>LME Copper</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$5:$F$19</c:f>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>LME Aluminium</c:v>
+                  <c:v>21 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LME Aluminium Alloy</c:v>
+                  <c:v>22 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LME Cobalt</c:v>
+                  <c:v>23 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LME Copper</c:v>
+                  <c:v>24 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LME Gold</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LME Lead</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LME NASAAC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LME Nickel</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LME Silver</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LME Steel Rebar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LME Steel Scrap</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LME Tin</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LME Zinc</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>25 October 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$5:$J$19</c:f>
+              <c:f>Hoja1!$J$5:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1715</c:v>
+                  <c:v>5820</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1365</c:v>
+                  <c:v>5794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35500</c:v>
+                  <c:v>5773</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5869</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1501.5</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2242</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16950</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16700</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2518.5</c:v>
+                  <c:v>5867.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000CD-59C0-F24B-ABBE-0DFAE3283EF4}"/>
+              <c16:uniqueId val="{00000015-631B-174A-84A8-39EAA790D833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1815,83 +1602,789 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>LME Gold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$5:$F$19</c:f>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>LME Aluminium</c:v>
+                  <c:v>21 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LME Aluminium Alloy</c:v>
+                  <c:v>22 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LME Cobalt</c:v>
+                  <c:v>23 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LME Copper</c:v>
+                  <c:v>24 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LME Gold</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LME Lead</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LME NASAAC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LME Nickel</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LME Silver</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LME Steel Rebar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LME Steel Scrap</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LME Tin</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LME Zinc</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>25 October 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$5:$K$19</c:f>
+              <c:f>Hoja1!$K$5:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1484.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1484.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1493.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1501.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1503.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000CE-59C0-F24B-ABBE-0DFAE3283EF4}"/>
+              <c16:uniqueId val="{00000016-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME Lead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2244.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME NASAAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$5:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$3:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME Nickel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$5:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$3:$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME Silver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$5:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.574999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$P$3:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME Steel Rebar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$5:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>415.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$Q$3:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME Steel Scrap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$Q$5:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>253.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$R$3:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME Tin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$R$5:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16730</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$S$3:$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LME Zinc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$5:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2518.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-631B-174A-84A8-39EAA790D833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$T$3:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 October 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-631B-174A-84A8-39EAA790D833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1903,10 +2396,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:smooth val="0"/>
         <c:axId val="1222376384"/>
         <c:axId val="1222378064"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1222376384"/>
         <c:scaling>
@@ -2698,17 +3191,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Betancor Sanchez" refreshedDate="43763.63718784722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="53" xr:uid="{83D9156E-90D0-8843-AC58-B7839DECE236}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Betancor Sanchez" refreshedDate="43765.759985532408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66" xr:uid="{83D9156E-90D0-8843-AC58-B7839DECE236}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="Hoja1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="21 October 2019"/>
         <s v="22 October 2019"/>
         <s v="23 October 2019"/>
         <s v="24 October 2019"/>
+        <s v="25 October 2019"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2746,7 +3240,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="53">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="66">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3061,6 +3555,84 @@
   </r>
   <r>
     <x v="4"/>
+    <x v="0"/>
+    <s v="US$"/>
+    <n v="1710.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="US$"/>
+    <n v="5867.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="US$"/>
+    <n v="2544"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="US$"/>
+    <n v="16890"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="US$"/>
+    <n v="2244.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <s v="US$"/>
+    <n v="16600"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <s v="US$"/>
+    <n v="1370"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="US$"/>
+    <n v="1070"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <s v="US$"/>
+    <n v="35500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <s v="US$"/>
+    <n v="1503.2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <s v="US$"/>
+    <n v="17.945"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <s v="US$"/>
+    <n v="257"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <s v="US$"/>
+    <n v="416"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="13"/>
     <m/>
     <m/>
@@ -3069,20 +3641,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE26896A-26F7-284F-8BC2-3AF86F43155C}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="F3:L19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE26896A-26F7-284F-8BC2-3AF86F43155C}" name="TablaDinámica1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="F3:U11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="6"/>
@@ -3105,9 +3678,35 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="1"/>
-  </rowFields>
-  <rowItems count="15">
+  </colFields>
+  <colItems count="15">
     <i>
       <x/>
     </i>
@@ -3153,34 +3752,11 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Suma de Value" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="69">
+  <chartFormats count="99">
     <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4149,6 +4725,360 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="74" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="75" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="76" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="79" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="80" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="81" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="82" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="83" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="84" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="85" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="86" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="74" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="75" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="76" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="79" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="80" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="81" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="82" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="83" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="84" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="85" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="87" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="86" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -4467,23 +5397,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E82C3BF-7C3D-F541-8955-005B69AD4ADA}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -4541,8 +5473,8 @@
     <col min="74" max="74" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4555,8 +5487,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -4569,8 +5501,8 @@
         <v>1735.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -4589,8 +5521,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -4606,26 +5538,53 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="U4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -4638,27 +5597,54 @@
         <v>16200</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
         <v>1735.5</v>
       </c>
       <c r="H5" s="4">
-        <v>1707.5</v>
+        <v>1310</v>
       </c>
       <c r="I5" s="4">
-        <v>1712</v>
+        <v>35500</v>
       </c>
       <c r="J5" s="4">
-        <v>1715</v>
-      </c>
-      <c r="K5" s="4"/>
+        <v>5820</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1484.5</v>
+      </c>
       <c r="L5" s="4">
-        <v>6870</v>
+        <v>2202</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1045</v>
+      </c>
+      <c r="N5" s="4">
+        <v>16200</v>
+      </c>
+      <c r="O5" s="4">
+        <v>17.574999999999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>417</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>256</v>
+      </c>
+      <c r="R5" s="4">
+        <v>16825</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2500</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
+        <v>85312.574999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -4671,27 +5657,54 @@
         <v>2202</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4">
-        <v>1310</v>
+        <v>1707.5</v>
       </c>
       <c r="H6" s="4">
         <v>1275</v>
       </c>
       <c r="I6" s="4">
-        <v>1325</v>
+        <v>35500</v>
       </c>
       <c r="J6" s="4">
-        <v>1365</v>
-      </c>
-      <c r="K6" s="4"/>
+        <v>5794</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1484.5</v>
+      </c>
       <c r="L6" s="4">
-        <v>5275</v>
+        <v>2235</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1055</v>
+      </c>
+      <c r="N6" s="4">
+        <v>16025</v>
+      </c>
+      <c r="O6" s="4">
+        <v>17.465</v>
+      </c>
+      <c r="P6" s="4">
+        <v>415.5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>253.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>16730</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2503</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4">
+        <v>84995.464999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -4704,27 +5717,54 @@
         <v>16825</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4">
-        <v>35500</v>
+        <v>1712</v>
       </c>
       <c r="H7" s="4">
-        <v>35500</v>
+        <v>1325</v>
       </c>
       <c r="I7" s="4">
         <v>35500</v>
       </c>
       <c r="J7" s="4">
-        <v>35500</v>
-      </c>
-      <c r="K7" s="4"/>
+        <v>5773</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1493.2</v>
+      </c>
       <c r="L7" s="4">
-        <v>142000</v>
+        <v>2236</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1070</v>
+      </c>
+      <c r="N7" s="4">
+        <v>16395</v>
+      </c>
+      <c r="O7" s="4">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>413</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>254</v>
+      </c>
+      <c r="R7" s="4">
+        <v>16705</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2510</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4">
+        <v>85403.76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -4737,27 +5777,54 @@
         <v>1310</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4">
-        <v>5820</v>
+        <v>1715</v>
       </c>
       <c r="H8" s="4">
-        <v>5794</v>
+        <v>1365</v>
       </c>
       <c r="I8" s="4">
-        <v>5773</v>
+        <v>35500</v>
       </c>
       <c r="J8" s="4">
         <v>5869</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>1501.5</v>
+      </c>
       <c r="L8" s="4">
-        <v>23256</v>
+        <v>2242</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1050</v>
+      </c>
+      <c r="N8" s="4">
+        <v>16950</v>
+      </c>
+      <c r="O8" s="4">
+        <v>17.78</v>
+      </c>
+      <c r="P8" s="4">
+        <v>414</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>253</v>
+      </c>
+      <c r="R8" s="4">
+        <v>16700</v>
+      </c>
+      <c r="S8" s="4">
+        <v>2518.5</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4">
+        <v>86095.78</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -4770,27 +5837,26 @@
         <v>1045</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1484.5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1484.5</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1493.2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1501.5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4">
-        <v>5963.7</v>
-      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -4803,27 +5869,54 @@
         <v>35500</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4">
-        <v>2202</v>
+        <v>1710.5</v>
       </c>
       <c r="H10" s="4">
-        <v>2235</v>
+        <v>1370</v>
       </c>
       <c r="I10" s="4">
-        <v>2236</v>
+        <v>35500</v>
       </c>
       <c r="J10" s="4">
-        <v>2242</v>
-      </c>
-      <c r="K10" s="4"/>
+        <v>5867.5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1503.2</v>
+      </c>
       <c r="L10" s="4">
-        <v>8915</v>
+        <v>2244.5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1070</v>
+      </c>
+      <c r="N10" s="4">
+        <v>16890</v>
+      </c>
+      <c r="O10" s="4">
+        <v>17.945</v>
+      </c>
+      <c r="P10" s="4">
+        <v>416</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>257</v>
+      </c>
+      <c r="R10" s="4">
+        <v>16600</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2544</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
+        <v>85990.645000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -4836,27 +5929,54 @@
         <v>1484.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4">
-        <v>1045</v>
+        <v>8580.5</v>
       </c>
       <c r="H11" s="4">
-        <v>1055</v>
+        <v>6645</v>
       </c>
       <c r="I11" s="4">
-        <v>1070</v>
+        <v>177500</v>
       </c>
       <c r="J11" s="4">
-        <v>1050</v>
-      </c>
-      <c r="K11" s="4"/>
+        <v>29123.5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>7466.9</v>
+      </c>
       <c r="L11" s="4">
-        <v>4220</v>
+        <v>11159.5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5290</v>
+      </c>
+      <c r="N11" s="4">
+        <v>82460</v>
+      </c>
+      <c r="O11" s="4">
+        <v>88.324999999999989</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2075.5</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1273.5</v>
+      </c>
+      <c r="R11" s="4">
+        <v>83560</v>
+      </c>
+      <c r="S11" s="4">
+        <v>12575.5</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
+        <v>427798.22499999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -4868,28 +5988,9 @@
       <c r="D12">
         <v>17.574999999999999</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4">
-        <v>16200</v>
-      </c>
-      <c r="H12" s="4">
-        <v>16025</v>
-      </c>
-      <c r="I12" s="4">
-        <v>16395</v>
-      </c>
-      <c r="J12" s="4">
-        <v>16950</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
-        <v>65570</v>
-      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
@@ -4901,28 +6002,9 @@
       <c r="D13">
         <v>256</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4">
-        <v>17.574999999999999</v>
-      </c>
-      <c r="H13" s="4">
-        <v>17.465</v>
-      </c>
-      <c r="I13" s="4">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="J13" s="4">
-        <v>17.78</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
-        <v>70.38</v>
-      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
@@ -4934,28 +6016,9 @@
       <c r="D14">
         <v>417</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4">
-        <v>417</v>
-      </c>
-      <c r="H14" s="4">
-        <v>415.5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>413</v>
-      </c>
-      <c r="J14" s="4">
-        <v>414</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4">
-        <v>1659.5</v>
-      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -4967,28 +6030,9 @@
       <c r="D15" s="1">
         <v>1707.5</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="4">
-        <v>256</v>
-      </c>
-      <c r="H15" s="4">
-        <v>253.5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>254</v>
-      </c>
-      <c r="J15" s="4">
-        <v>253</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
-        <v>1016.5</v>
-      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
@@ -5000,28 +6044,9 @@
       <c r="D16" s="1">
         <v>5794</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4">
-        <v>16825</v>
-      </c>
-      <c r="H16" s="4">
-        <v>16730</v>
-      </c>
-      <c r="I16" s="4">
-        <v>16705</v>
-      </c>
-      <c r="J16" s="4">
-        <v>16700</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
-        <v>66960</v>
-      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -5033,28 +6058,9 @@
       <c r="D17" s="1">
         <v>2503</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2503</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2510</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2518.5</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <v>10031.5</v>
-      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
@@ -5066,18 +6072,9 @@
       <c r="D18" s="1">
         <v>16025</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
@@ -5089,28 +6086,9 @@
       <c r="D19" s="1">
         <v>2235</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="4">
-        <v>85312.574999999997</v>
-      </c>
-      <c r="H19" s="4">
-        <v>84995.464999999997</v>
-      </c>
-      <c r="I19" s="4">
-        <v>85403.76</v>
-      </c>
-      <c r="J19" s="4">
-        <v>86095.78</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
-        <v>341807.58</v>
-      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -5123,8 +6101,8 @@
         <v>16730</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -5137,8 +6115,8 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -5151,8 +6129,8 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -5165,8 +6143,8 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
@@ -5179,8 +6157,8 @@
         <v>1484.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
@@ -5193,8 +6171,8 @@
         <v>17.465</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
@@ -5207,8 +6185,8 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
@@ -5221,8 +6199,8 @@
         <v>415.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
@@ -5235,8 +6213,8 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
@@ -5249,8 +6227,8 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
@@ -5263,8 +6241,8 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
@@ -5277,8 +6255,8 @@
         <v>16395</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
@@ -5292,7 +6270,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B33" t="s">
@@ -5306,7 +6284,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
@@ -5320,7 +6298,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B35" t="s">
@@ -5334,7 +6312,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B36" t="s">
@@ -5348,7 +6326,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B37" t="s">
@@ -5362,7 +6340,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B38" t="s">
@@ -5376,7 +6354,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
@@ -5390,7 +6368,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
@@ -5404,7 +6382,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
@@ -5418,7 +6396,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B42" t="s">
@@ -5432,7 +6410,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
@@ -5446,7 +6424,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -5460,7 +6438,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
@@ -5474,7 +6452,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B46" t="s">
@@ -5488,7 +6466,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B47" t="s">
@@ -5502,7 +6480,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
@@ -5516,7 +6494,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
@@ -5530,7 +6508,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B50" t="s">
@@ -5544,7 +6522,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B51" t="s">
@@ -5558,7 +6536,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B52" t="s">
@@ -5572,7 +6550,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B53" t="s">
@@ -5583,6 +6561,188 @@
       </c>
       <c r="D53">
         <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1710.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5867.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>16890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2244.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1503.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>17.945</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/Gráfico_dinámico.xlsx
+++ b/Gráfico_dinámico.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBS/Documents/GitHub/LME-Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61390AE1-7FEB-4E49-B5A8-EFC09BF24908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B569E-BE00-8A45-B2C3-E8DD7E3805C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="19760" xr2:uid="{475ADC4C-66C2-134C-816D-A8CC565EBC03}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14600" xr2:uid="{475ADC4C-66C2-134C-816D-A8CC565EBC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="lme" localSheetId="0">Hoja1!$A$1:$D$66</definedName>
+    <definedName name="lme" localSheetId="0">Hoja1!$A$1:$D$131</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Etiquetas de fila</t>
   </si>
   <si>
-    <t>(en blanco)</t>
-  </si>
-  <si>
     <t>Total general</t>
   </si>
   <si>
@@ -130,6 +127,21 @@
   </si>
   <si>
     <t>25 October 2019</t>
+  </si>
+  <si>
+    <t>28 October 2019</t>
+  </si>
+  <si>
+    <t>29 October 2019</t>
+  </si>
+  <si>
+    <t>30 October 2019</t>
+  </si>
+  <si>
+    <t>31 October 2019</t>
+  </si>
+  <si>
+    <t>1 November 2019</t>
   </si>
 </sst>
 </file>
@@ -209,6 +221,36 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -401,8 +443,10 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
-          <a:ln w="25400" cap="rnd">
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1278,14 +1322,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LME Aluminium</c:v>
+                  <c:v>LME Gold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1295,9 +1341,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
+              <c:f>Hoja1!$F$5:$F$15</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>21 October 2019</c:v>
                 </c:pt>
@@ -1311,344 +1357,32 @@
                   <c:v>24 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>25 October 2019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
+                  <c:v>28 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31 October 2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1 November 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$5:$G$11</c:f>
+              <c:f>Hoja1!$G$5:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1735.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1707.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1712</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1715</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1710.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-59C0-F24B-ABBE-0DFAE3283EF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$H$3:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Aluminium Alloy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1370</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Cobalt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$I$5:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>35500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$J$3:$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Copper</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$5:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5820</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5794</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5773</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5869</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5867.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$K$3:$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Gold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$K$5:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1484.5</c:v>
                 </c:pt>
@@ -1661,8 +1395,23 @@
                 <c:pt idx="3">
                   <c:v>1501.5</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1503.2</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1503.2</c:v>
+                  <c:v>1492.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1488.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1512.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1509.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,721 +1419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$L$3:$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Lead</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$L$5:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2236</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2242</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2244.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$M$3:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME NASAAC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$M$5:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1055</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1070</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$N$3:$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Nickel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$N$5:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>16200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16395</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16950</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16890</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$O$3:$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Silver</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$O$5:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>17.574999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.465</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.945</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$P$3:$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Steel Rebar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$P$5:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>415.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>416</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$Q$3:$Q$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Steel Scrap</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$Q$5:$Q$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>257</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$R$3:$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Tin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$R$5:$R$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>16825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16730</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16705</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$S$3:$S$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LME Zinc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$S$5:$S$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2510</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2518.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-631B-174A-84A8-39EAA790D833}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$T$3:$T$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$F$5:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24 October 2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25 October 2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$T$5:$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-631B-174A-84A8-39EAA790D833}"/>
+              <c16:uniqueId val="{00000002-59C0-F24B-ABBE-0DFAE3283EF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3191,18 +2226,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Betancor Sanchez" refreshedDate="43765.759985532408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66" xr:uid="{83D9156E-90D0-8843-AC58-B7839DECE236}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Betancor Sanchez" refreshedDate="43772.791131828701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="131" xr:uid="{83D9156E-90D0-8843-AC58-B7839DECE236}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="Hoja1"/>
   </cacheSource>
   <cacheFields count="4">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsBlank="1" count="11">
         <s v="21 October 2019"/>
         <s v="22 October 2019"/>
         <s v="23 October 2019"/>
         <s v="24 October 2019"/>
         <s v="25 October 2019"/>
+        <s v="28 October 2019"/>
+        <s v="29 October 2019"/>
+        <s v="30 October 2019"/>
+        <s v="31 October 2019"/>
+        <s v="1 November 2019"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3240,7 +2280,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="66">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="131">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3633,6 +2673,396 @@
   </r>
   <r>
     <x v="5"/>
+    <x v="0"/>
+    <s v="US$"/>
+    <n v="1727"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="US$"/>
+    <n v="5888.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="US$"/>
+    <n v="2577"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="US$"/>
+    <n v="16680"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <s v="US$"/>
+    <n v="2232"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="US$"/>
+    <n v="16900"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="US$"/>
+    <n v="1330"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <s v="US$"/>
+    <n v="1080"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <s v="US$"/>
+    <n v="35500"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <s v="US$"/>
+    <n v="1492.3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <s v="US$"/>
+    <n v="17.88"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <s v="US$"/>
+    <n v="257"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+    <s v="US$"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="US$"/>
+    <n v="1737.5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="US$"/>
+    <n v="5879.5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <s v="US$"/>
+    <n v="2586"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="US$"/>
+    <n v="16680"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <s v="US$"/>
+    <n v="2267"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <s v="US$"/>
+    <n v="16725"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="US$"/>
+    <n v="1350"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <s v="US$"/>
+    <n v="1130"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <s v="US$"/>
+    <n v="35500"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="9"/>
+    <s v="US$"/>
+    <n v="1489"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="10"/>
+    <s v="US$"/>
+    <n v="17.815000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="11"/>
+    <s v="US$"/>
+    <n v="252.5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <s v="US$"/>
+    <n v="414.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="US$"/>
+    <n v="1746.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="US$"/>
+    <n v="5883"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <s v="US$"/>
+    <n v="2563.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="US$"/>
+    <n v="16900"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="US$"/>
+    <n v="2255.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <s v="US$"/>
+    <n v="16800"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <s v="US$"/>
+    <n v="1370"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="US$"/>
+    <n v="1150"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <s v="US$"/>
+    <n v="35500"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="9"/>
+    <s v="US$"/>
+    <n v="1488.8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="10"/>
+    <s v="US$"/>
+    <n v="17.72"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="11"/>
+    <s v="US$"/>
+    <n v="252"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <s v="US$"/>
+    <n v="414.5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="US$"/>
+    <n v="1742.5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="US$"/>
+    <n v="5825"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="US$"/>
+    <n v="2543"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="US$"/>
+    <n v="16835"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <s v="US$"/>
+    <n v="2210"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <s v="US$"/>
+    <n v="16750"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <s v="US$"/>
+    <n v="1370"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <s v="US$"/>
+    <n v="1190"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="US$"/>
+    <n v="35500"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <s v="US$"/>
+    <n v="1512.2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="10"/>
+    <s v="US$"/>
+    <n v="18.065000000000001"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="11"/>
+    <s v="US$"/>
+    <n v="253"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <s v="US$"/>
+    <n v="410"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="US$"/>
+    <n v="1766"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <s v="US$"/>
+    <n v="5797"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="US$"/>
+    <n v="2541"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <s v="US$"/>
+    <n v="16750"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <s v="US$"/>
+    <n v="2176"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <s v="US$"/>
+    <n v="16575"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <s v="US$"/>
+    <n v="1370"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <s v="US$"/>
+    <n v="1130"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <s v="US$"/>
+    <n v="35500"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="US$"/>
+    <n v="1509.1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="10"/>
+    <s v="US$"/>
+    <n v="18.05"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="11"/>
+    <s v="US$"/>
+    <n v="257"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="12"/>
+    <s v="US$"/>
+    <n v="414"/>
+  </r>
+  <r>
+    <x v="10"/>
     <x v="13"/>
     <m/>
     <m/>
@@ -3641,36 +3071,41 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE26896A-26F7-284F-8BC2-3AF86F43155C}" name="TablaDinámica1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="F3:U11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE26896A-26F7-284F-8BC2-3AF86F43155C}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="F3:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="10"/>
+        <item x="4"/>
         <item x="5"/>
-        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="15">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
         <item x="9"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="13"/>
+        <item h="1" x="4"/>
+        <item h="1" x="7"/>
+        <item h="1" x="3"/>
+        <item h="1" x="10"/>
+        <item h="1" x="12"/>
+        <item h="1" x="11"/>
+        <item h="1" x="5"/>
+        <item h="1" x="2"/>
+        <item h="1" x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3680,7 +3115,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -3692,35 +3127,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -3740,14 +3146,16 @@
     <i>
       <x v="10"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -3756,7 +3164,7 @@
   <dataFields count="1">
     <dataField name="Suma de Value" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="99">
+  <chartFormats count="101">
     <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5079,6 +4487,30 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5397,21 +4829,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E82C3BF-7C3D-F541-8955-005B69AD4ADA}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
@@ -5473,7 +4903,7 @@
     <col min="74" max="74" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +4917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -5501,7 +4931,7 @@
         <v>1735.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -5515,13 +4945,13 @@
         <v>5820</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -5538,52 +4968,13 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" t="s">
         <v>23</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5600,50 +4991,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>1735.5</v>
+        <v>1484.5</v>
       </c>
       <c r="H5" s="4">
-        <v>1310</v>
-      </c>
-      <c r="I5" s="4">
-        <v>35500</v>
-      </c>
-      <c r="J5" s="4">
-        <v>5820</v>
-      </c>
-      <c r="K5" s="4">
         <v>1484.5</v>
       </c>
-      <c r="L5" s="4">
-        <v>2202</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1045</v>
-      </c>
-      <c r="N5" s="4">
-        <v>16200</v>
-      </c>
-      <c r="O5" s="4">
-        <v>17.574999999999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>417</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>256</v>
-      </c>
-      <c r="R5" s="4">
-        <v>16825</v>
-      </c>
-      <c r="S5" s="4">
-        <v>2500</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4">
-        <v>85312.574999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -5660,50 +5014,13 @@
         <v>19</v>
       </c>
       <c r="G6" s="4">
-        <v>1707.5</v>
+        <v>1484.5</v>
       </c>
       <c r="H6" s="4">
-        <v>1275</v>
-      </c>
-      <c r="I6" s="4">
-        <v>35500</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5794</v>
-      </c>
-      <c r="K6" s="4">
         <v>1484.5</v>
       </c>
-      <c r="L6" s="4">
-        <v>2235</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1055</v>
-      </c>
-      <c r="N6" s="4">
-        <v>16025</v>
-      </c>
-      <c r="O6" s="4">
-        <v>17.465</v>
-      </c>
-      <c r="P6" s="4">
-        <v>415.5</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>253.5</v>
-      </c>
-      <c r="R6" s="4">
-        <v>16730</v>
-      </c>
-      <c r="S6" s="4">
-        <v>2503</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4">
-        <v>84995.464999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -5720,50 +5037,13 @@
         <v>20</v>
       </c>
       <c r="G7" s="4">
-        <v>1712</v>
+        <v>1493.2</v>
       </c>
       <c r="H7" s="4">
-        <v>1325</v>
-      </c>
-      <c r="I7" s="4">
-        <v>35500</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5773</v>
-      </c>
-      <c r="K7" s="4">
         <v>1493.2</v>
       </c>
-      <c r="L7" s="4">
-        <v>2236</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1070</v>
-      </c>
-      <c r="N7" s="4">
-        <v>16395</v>
-      </c>
-      <c r="O7" s="4">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="P7" s="4">
-        <v>413</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>254</v>
-      </c>
-      <c r="R7" s="4">
-        <v>16705</v>
-      </c>
-      <c r="S7" s="4">
-        <v>2510</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4">
-        <v>85403.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -5780,50 +5060,13 @@
         <v>21</v>
       </c>
       <c r="G8" s="4">
-        <v>1715</v>
+        <v>1501.5</v>
       </c>
       <c r="H8" s="4">
-        <v>1365</v>
-      </c>
-      <c r="I8" s="4">
-        <v>35500</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5869</v>
-      </c>
-      <c r="K8" s="4">
         <v>1501.5</v>
       </c>
-      <c r="L8" s="4">
-        <v>2242</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1050</v>
-      </c>
-      <c r="N8" s="4">
-        <v>16950</v>
-      </c>
-      <c r="O8" s="4">
-        <v>17.78</v>
-      </c>
-      <c r="P8" s="4">
-        <v>414</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>253</v>
-      </c>
-      <c r="R8" s="4">
-        <v>16700</v>
-      </c>
-      <c r="S8" s="4">
-        <v>2518.5</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4">
-        <v>86095.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -5837,25 +5080,16 @@
         <v>1045</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1503.2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1503.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -5872,50 +5106,13 @@
         <v>27</v>
       </c>
       <c r="G10" s="4">
-        <v>1710.5</v>
+        <v>1492.3</v>
       </c>
       <c r="H10" s="4">
-        <v>1370</v>
-      </c>
-      <c r="I10" s="4">
-        <v>35500</v>
-      </c>
-      <c r="J10" s="4">
-        <v>5867.5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1503.2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>2244.5</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1070</v>
-      </c>
-      <c r="N10" s="4">
-        <v>16890</v>
-      </c>
-      <c r="O10" s="4">
-        <v>17.945</v>
-      </c>
-      <c r="P10" s="4">
-        <v>416</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>257</v>
-      </c>
-      <c r="R10" s="4">
-        <v>16600</v>
-      </c>
-      <c r="S10" s="4">
-        <v>2544</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4">
-        <v>85990.645000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1492.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -5929,53 +5126,16 @@
         <v>1484.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4">
-        <v>8580.5</v>
+        <v>1489</v>
       </c>
       <c r="H11" s="4">
-        <v>6645</v>
-      </c>
-      <c r="I11" s="4">
-        <v>177500</v>
-      </c>
-      <c r="J11" s="4">
-        <v>29123.5</v>
-      </c>
-      <c r="K11" s="4">
-        <v>7466.9</v>
-      </c>
-      <c r="L11" s="4">
-        <v>11159.5</v>
-      </c>
-      <c r="M11" s="4">
-        <v>5290</v>
-      </c>
-      <c r="N11" s="4">
-        <v>82460</v>
-      </c>
-      <c r="O11" s="4">
-        <v>88.324999999999989</v>
-      </c>
-      <c r="P11" s="4">
-        <v>2075.5</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>1273.5</v>
-      </c>
-      <c r="R11" s="4">
-        <v>83560</v>
-      </c>
-      <c r="S11" s="4">
-        <v>12575.5</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4">
-        <v>427798.22499999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -5988,8 +5148,17 @@
       <c r="D12">
         <v>17.574999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1488.8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1488.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -6002,8 +5171,17 @@
       <c r="D13">
         <v>256</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1512.2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1512.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -6016,8 +5194,17 @@
       <c r="D14">
         <v>417</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1509.1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1509.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -6030,8 +5217,17 @@
       <c r="D15" s="1">
         <v>1707.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4">
+        <v>14958.3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>14958.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -6565,7 +5761,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -6579,7 +5775,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -6593,7 +5789,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -6607,7 +5803,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -6621,7 +5817,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -6635,7 +5831,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -6649,7 +5845,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -6663,7 +5859,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -6677,7 +5873,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -6691,7 +5887,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -6705,7 +5901,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -6719,7 +5915,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
@@ -6733,7 +5929,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
@@ -6743,6 +5939,916 @@
       </c>
       <c r="D66" s="1">
         <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5888.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1">
+        <v>16680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1492.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1737.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5879.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>16680</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1">
+        <v>16725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1">
+        <v>17.815000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1">
+        <v>252.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1">
+        <v>414.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1746.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2563.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2255.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1488.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1">
+        <v>414.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1742.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1">
+        <v>16835</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1512.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1">
+        <v>18.065000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="1">
+        <v>16575</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="1">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1509.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="1">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
